--- a/flowchart.xlsx
+++ b/flowchart.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>index.php</t>
     <phoneticPr fontId="1"/>
@@ -149,9 +149,6 @@
     <t>p2.css</t>
   </si>
   <si>
-    <t>p3.css</t>
-  </si>
-  <si>
     <t>s_data_exists.php</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -260,6 +257,34 @@
   </si>
   <si>
     <t>ファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p1.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p2.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p3.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>p2.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data1000000010001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data1000000010002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>：</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -292,7 +317,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +339,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAEE618"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,13 +382,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1313,9 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1325,15 +1365,15 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -1348,7 +1388,7 @@
         <v>11</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1356,15 +1396,15 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -1379,10 +1419,15 @@
         <v>14</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -1390,7 +1435,10 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -1398,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>18</v>
@@ -1407,7 +1455,10 @@
         <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1415,10 +1466,10 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1426,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
@@ -1435,10 +1486,10 @@
         <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1451,10 +1502,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>

--- a/flowchart.xlsx
+++ b/flowchart.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>index.php</t>
     <phoneticPr fontId="1"/>
@@ -65,25 +65,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スレッドを管理するための幹事（管理者）用ページ（未作成）</t>
-    <rPh sb="5" eb="7">
-      <t>カンr</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カn</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>カn</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ミサクs</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スレッドを立てるための幹事（管理者）用ページ</t>
     <rPh sb="5" eb="6">
       <t>タt</t>
@@ -285,6 +266,49 @@
   </si>
   <si>
     <t>：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat_user.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドを管理するための幹事（管理者）用ページ</t>
+    <rPh sb="5" eb="7">
+      <t>カンr</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カn</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カn</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat_master.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（未実装）→</t>
+    <rPh sb="1" eb="4">
+      <t>ミジッソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat1000000010000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat1000000010001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chat1000000010002</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -382,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -394,6 +418,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -425,7 +452,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1117600</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -467,13 +494,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1079500</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -515,13 +542,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1079500</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -563,13 +590,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -611,13 +638,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1079500</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -713,7 +740,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -755,13 +782,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -803,13 +830,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -857,7 +884,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -899,13 +926,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -963,13 +990,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1016000</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1033,7 +1060,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1092200</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1085,6 +1112,102 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1092200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3733800"/>
+          <a:ext cx="8966200" cy="749300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3568700" y="4610100"/>
+          <a:ext cx="8813800" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1353,7 +1476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1365,30 +1488,30 @@
   <sheetData>
     <row r="1" spans="1:11" ht="24" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -1396,119 +1519,150 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="H6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="K7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>41</v>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>30</v>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>6</v>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
